--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_3_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_3_sine_0.1_.xlsx
@@ -587,67 +587,67 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01727604414633632</v>
+        <v>0.002027356019707161</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01727604414633632</v>
+        <v>0.002027356019707161</v>
       </c>
       <c r="J2" t="n">
-        <v>0.9432928585145132</v>
+        <v>0.5891811476386277</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9432928585145132</v>
+        <v>0.5891811476386277</v>
       </c>
       <c r="L2" t="n">
-        <v>33.79590644445615</v>
+        <v>41.5403630465008</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[7.2057377268241325, 60.38607516208817]</t>
+          <t>[15.171865799070773, 67.90886029393083]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.01389877274676055</v>
+        <v>0.002719205218807197</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01389877274676055</v>
+        <v>0.002719205218807197</v>
       </c>
       <c r="P2" t="n">
-        <v>1.679289766783733</v>
+        <v>1.415131825941349</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.6226580034141929, 2.7359215301532736]</t>
+          <t>[0.6352369529781159, 2.1950266989045817]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.002513121202712076</v>
+        <v>0.0006705025592619318</v>
       </c>
       <c r="S2" t="n">
-        <v>0.002513121202712076</v>
+        <v>0.0006705025592619318</v>
       </c>
       <c r="T2" t="n">
-        <v>58.35750416631356</v>
+        <v>61.47517743107858</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[42.661841480132054, 74.05316685249507]</t>
+          <t>[46.37019881854863, 76.58015604360853]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.932683568739435e-09</v>
+        <v>1.783686531808826e-10</v>
       </c>
       <c r="W2" t="n">
-        <v>1.932683568739435e-09</v>
+        <v>1.783686531808826e-10</v>
       </c>
       <c r="X2" t="n">
-        <v>16.12012012012012</v>
+        <v>17.04504504504504</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.42042042042042</v>
+        <v>14.31431431431431</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.81981981981982</v>
+        <v>19.77577577577578</v>
       </c>
     </row>
     <row r="3">
@@ -677,67 +677,67 @@
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1.183651230696192e-06</v>
+        <v>0.001895382316740468</v>
       </c>
       <c r="I3" t="n">
-        <v>1.183651230696192e-06</v>
+        <v>0.001895382316740468</v>
       </c>
       <c r="J3" t="n">
-        <v>0.288731572425463</v>
+        <v>0.1696113817097465</v>
       </c>
       <c r="K3" t="n">
-        <v>0.288731572425463</v>
+        <v>0.1696113817097465</v>
       </c>
       <c r="L3" t="n">
-        <v>57.49396609817596</v>
+        <v>35.94388283543005</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[32.659296551586685, 82.32863564476523]</t>
+          <t>[11.702255356496686, 60.18551031436342]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.801533590091054e-05</v>
+        <v>0.004555558110825642</v>
       </c>
       <c r="O3" t="n">
-        <v>2.801533590091054e-05</v>
+        <v>0.004555558110825642</v>
       </c>
       <c r="P3" t="n">
-        <v>2.081816152829272</v>
+        <v>2.06923720326535</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.6289739685280393, 2.5346583371305043]</t>
+          <t>[1.3396581285578106, 2.7988162779728887]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>5.474287689821722e-12</v>
+        <v>8.328616902808506e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>5.474287689821722e-12</v>
+        <v>8.328616902808506e-07</v>
       </c>
       <c r="T3" t="n">
-        <v>69.34365654419329</v>
+        <v>52.65278541856107</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[56.002644116946925, 82.68466897143966]</t>
+          <t>[39.24034674334139, 66.06522409378076]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.214583988939921e-13</v>
+        <v>4.713904822040149e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>1.214583988939921e-13</v>
+        <v>4.713904822040149e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>14.71071071071071</v>
+        <v>14.75475475475475</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.12512512512513</v>
+        <v>12.2002002002002</v>
       </c>
       <c r="Z3" t="n">
-        <v>16.2962962962963</v>
+        <v>17.30930930930931</v>
       </c>
     </row>
     <row r="4">
@@ -767,67 +767,67 @@
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.00103539540730635</v>
+        <v>4.202640178818662e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00103539540730635</v>
+        <v>4.202640178818662e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0978426164995102</v>
+        <v>0.7411492416803547</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0978426164995102</v>
+        <v>0.7411492416803547</v>
       </c>
       <c r="L4" t="n">
-        <v>38.57821985401112</v>
+        <v>44.12716220211635</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[12.891771361823004, 64.26466834619923]</t>
+          <t>[19.7682797902812, 68.4860446139515]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.004099929402167302</v>
+        <v>0.0006826490933802276</v>
       </c>
       <c r="O4" t="n">
-        <v>0.004099929402167302</v>
+        <v>0.0006826490933802276</v>
       </c>
       <c r="P4" t="n">
-        <v>2.685605731897581</v>
+        <v>2.547237286694427</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.9686056067539646, 3.4026058570411974]</t>
+          <t>[2.0063424554457336, 3.08813211794312]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.601535792872255e-09</v>
+        <v>2.652988939644274e-12</v>
       </c>
       <c r="S4" t="n">
-        <v>1.601535792872255e-09</v>
+        <v>2.652988939644274e-12</v>
       </c>
       <c r="T4" t="n">
-        <v>64.39055498055806</v>
+        <v>53.09647059125567</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[50.2162222693574, 78.56488769175873]</t>
+          <t>[40.290962445255644, 65.90197873725569]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>7.800649015621275e-12</v>
+        <v>1.068289900985064e-10</v>
       </c>
       <c r="W4" t="n">
-        <v>7.800649015621275e-12</v>
+        <v>1.068289900985064e-10</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5965965965966</v>
+        <v>13.08108108108108</v>
       </c>
       <c r="Y4" t="n">
-        <v>10.08608608608609</v>
+        <v>11.18718718718719</v>
       </c>
       <c r="Z4" t="n">
-        <v>15.10710710710711</v>
+        <v>14.97497497497497</v>
       </c>
     </row>
     <row r="5">
@@ -851,69 +851,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>24.10000000000033</v>
+        <v>22.55000000000009</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02440507890723354</v>
+        <v>7.689429639334833e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02440507890723354</v>
+        <v>7.689429639334833e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>28.03718021006488</v>
+        <v>45.32243924209806</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[4.4247273719841544, 51.649633048145596]</t>
+          <t>[19.472745766352148, 71.17213271784397]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0210195215354152</v>
+        <v>0.0009677944313333242</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0210195215354152</v>
+        <v>0.0009677944313333242</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.056684744033312</v>
+        <v>2.471763589310888</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-4.188790204786391, -1.924579283280233]</t>
+          <t>[1.9182898084982725, 3.025237370123504]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.112949634813788e-06</v>
+        <v>1.288702478063897e-11</v>
       </c>
       <c r="S5" t="n">
-        <v>2.112949634813788e-06</v>
+        <v>1.288702478063897e-11</v>
       </c>
       <c r="T5" t="n">
-        <v>53.27896403863363</v>
+        <v>82.58243122813727</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[39.25653670821913, 67.30139136904813]</t>
+          <t>[69.1124648476638, 96.05239760861073]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>1.109117464537235e-09</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W5" t="n">
-        <v>1.109117464537235e-09</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X5" t="n">
-        <v>11.72432432432448</v>
+        <v>13.67897897897903</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.381981981982082</v>
+        <v>11.69259259259264</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.06666666666689</v>
+        <v>15.66536536536542</v>
       </c>
     </row>
     <row r="6">
@@ -937,69 +937,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>24.10000000000033</v>
+        <v>22.55000000000009</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0006793916417798807</v>
+        <v>2.534067289339248e-08</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0006793916417798807</v>
+        <v>2.534067289339248e-08</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>45.01481376131996</v>
+        <v>59.63004872921704</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[20.212576730363736, 69.81705079227618]</t>
+          <t>[37.987079211667094, 81.27301824676698]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.0006687485070027144</v>
+        <v>1.450230371347061e-06</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0006687485070027144</v>
+        <v>1.450230371347061e-06</v>
       </c>
       <c r="P6" t="n">
-        <v>-3.081842643161159</v>
+        <v>2.836553126664658</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-3.7988427683047754, -2.3648425180175416]</t>
+          <t>[2.434026740619119, 3.2390795127101963]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>3.888556143749611e-11</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>3.888556143749611e-11</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>57.43745686274818</v>
+        <v>67.71392014100674</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[42.0295081694068, 72.84540555608956]</t>
+          <t>[55.72642266583294, 79.70141761618054]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.808694305438507e-09</v>
+        <v>7.771561172376096e-15</v>
       </c>
       <c r="W6" t="n">
-        <v>1.808694305438507e-09</v>
+        <v>7.771561172376096e-15</v>
       </c>
       <c r="X6" t="n">
-        <v>11.82082082082098</v>
+        <v>12.36976976976982</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.070670670670793</v>
+        <v>10.92512512512517</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.57097097097117</v>
+        <v>13.81441441441447</v>
       </c>
     </row>
     <row r="7">
@@ -1023,69 +1023,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>24.10000000000033</v>
+        <v>22.55000000000009</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01032152625565264</v>
+        <v>0.0007496098217150138</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01032152625565264</v>
+        <v>0.0007496098217150138</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>26.37018899368339</v>
+        <v>39.78549070378454</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[6.865398247597689, 45.874979739769095]</t>
+          <t>[17.580920960047884, 61.990060447521195]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.009172424829644532</v>
+        <v>0.0007689693720362989</v>
       </c>
       <c r="O7" t="n">
-        <v>0.009172424829644532</v>
+        <v>0.0007689693720362989</v>
       </c>
       <c r="P7" t="n">
-        <v>3.100711067507043</v>
+        <v>-3.119579491852928</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[2.0692372032653488, 4.132184931748737]</t>
+          <t>[-3.886895415252237, -2.352263568453619]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.590757159914858e-07</v>
+        <v>1.835793739246583e-10</v>
       </c>
       <c r="S7" t="n">
-        <v>2.590757159914858e-07</v>
+        <v>1.835793739246583e-10</v>
       </c>
       <c r="T7" t="n">
-        <v>53.59912579808925</v>
+        <v>49.58951665567889</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[41.84438200353202, 65.35386959264648]</t>
+          <t>[35.46472484281361, 63.71430846854416]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>6.981970557262684e-12</v>
+        <v>7.993209427681336e-09</v>
       </c>
       <c r="W7" t="n">
-        <v>6.981970557262684e-12</v>
+        <v>7.993209427681336e-09</v>
       </c>
       <c r="X7" t="n">
-        <v>12.20680680680697</v>
+        <v>11.19599599599604</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.250450450450559</v>
+        <v>8.442142142142174</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.16316316316338</v>
+        <v>13.9498498498499</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_3_sine_0.1_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.1/cosinor_per_day_fixed_period_3_sine_0.1_.xlsx
@@ -581,73 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002027356019707161</v>
+        <v>0.00123970329637646</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002027356019707161</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5891811476386277</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5891811476386277</v>
-      </c>
+        <v>0.00123970329637646</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>41.5403630465008</v>
+        <v>41.02446563650307</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[15.171865799070773, 67.90886029393083]</t>
+          <t>[14.602403286189656, 67.44652798681649]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>0.002719205218807197</v>
+        <v>0.003090537660874304</v>
       </c>
       <c r="O2" t="n">
-        <v>0.002719205218807197</v>
+        <v>0.003090537660874304</v>
       </c>
       <c r="P2" t="n">
-        <v>1.415131825941349</v>
+        <v>1.327079178993887</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0.6352369529781159, 2.1950266989045817]</t>
+          <t>[0.6100790538502707, 2.0440793041375027]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>0.0006705025592619318</v>
+        <v>0.0005377761804539194</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0006705025592619318</v>
+        <v>0.0005377761804539194</v>
       </c>
       <c r="T2" t="n">
-        <v>61.47517743107858</v>
+        <v>64.32976713263479</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[46.37019881854863, 76.58015604360853]</t>
+          <t>[49.86291253761789, 78.79662172765168]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.783686531808826e-10</v>
+        <v>1.461608611919019e-11</v>
       </c>
       <c r="W2" t="n">
-        <v>1.783686531808826e-10</v>
+        <v>1.461608611919019e-11</v>
       </c>
       <c r="X2" t="n">
-        <v>17.04504504504504</v>
+        <v>17.96072072072081</v>
       </c>
       <c r="Y2" t="n">
-        <v>14.31431431431431</v>
+        <v>15.36234234234242</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.77577577577578</v>
+        <v>20.55909909909921</v>
       </c>
     </row>
     <row r="3">
@@ -671,73 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001895382316740468</v>
+        <v>0.001552274032706746</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001895382316740468</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.1696113817097465</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1696113817097465</v>
-      </c>
+        <v>0.001552274032706746</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>35.94388283543005</v>
+        <v>39.02379228103729</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[11.702255356496686, 60.18551031436342]</t>
+          <t>[15.15574146619933, 62.891843095875245]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.004555558110825642</v>
+        <v>0.001935143297543851</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004555558110825642</v>
+        <v>0.001935143297543851</v>
       </c>
       <c r="P3" t="n">
-        <v>2.06923720326535</v>
+        <v>1.679289766783732</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.3396581285578106, 2.7988162779728887]</t>
+          <t>[0.8993948938204994, 2.459184639746965]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>8.328616902808506e-07</v>
+        <v>8.051455955615516e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>8.328616902808506e-07</v>
+        <v>8.051455955615516e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>52.65278541856107</v>
+        <v>57.15898229008303</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[39.24034674334139, 66.06522409378076]</t>
+          <t>[43.105295576588546, 71.21266900357752]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>4.713904822040149e-10</v>
+        <v>1.816005124055664e-10</v>
       </c>
       <c r="W3" t="n">
-        <v>4.713904822040149e-10</v>
+        <v>1.816005124055664e-10</v>
       </c>
       <c r="X3" t="n">
-        <v>14.75475475475475</v>
+        <v>16.68432432432441</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.2002002002002</v>
+        <v>13.85801801801809</v>
       </c>
       <c r="Z3" t="n">
-        <v>17.30930930930931</v>
+        <v>19.51063063063074</v>
       </c>
     </row>
     <row r="4">
@@ -761,73 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>22</v>
+        <v>22.77000000000012</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>4.202640178818662e-05</v>
+        <v>4.00357431593612e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>4.202640178818662e-05</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7411492416803547</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.7411492416803547</v>
-      </c>
+        <v>4.00357431593612e-05</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>44.12716220211635</v>
+        <v>43.49163362182867</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[19.7682797902812, 68.4860446139515]</t>
+          <t>[20.705957654002134, 66.2773095896552]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0.0006826490933802276</v>
+        <v>0.000377186525926998</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0006826490933802276</v>
+        <v>0.000377186525926998</v>
       </c>
       <c r="P4" t="n">
-        <v>2.547237286694427</v>
+        <v>2.031500354573581</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[2.0063424554457336, 3.08813211794312]</t>
+          <t>[1.4780265737609648, 2.5849741353861964]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.652988939644274e-12</v>
+        <v>2.675647703398454e-09</v>
       </c>
       <c r="S4" t="n">
-        <v>2.652988939644274e-12</v>
+        <v>2.675647703398454e-09</v>
       </c>
       <c r="T4" t="n">
-        <v>53.09647059125567</v>
+        <v>64.97468104716748</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[40.290962445255644, 65.90197873725569]</t>
+          <t>[52.843473819471356, 77.1058882748636]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.068289900985064e-10</v>
+        <v>4.596323321948148e-14</v>
       </c>
       <c r="W4" t="n">
-        <v>1.068289900985064e-10</v>
+        <v>4.596323321948148e-14</v>
       </c>
       <c r="X4" t="n">
-        <v>13.08108108108108</v>
+        <v>15.40792792792801</v>
       </c>
       <c r="Y4" t="n">
-        <v>11.18718718718719</v>
+        <v>13.40216216216223</v>
       </c>
       <c r="Z4" t="n">
-        <v>14.97497497497497</v>
+        <v>17.41369369369378</v>
       </c>
     </row>
     <row r="5">
@@ -851,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>22.55000000000009</v>
+        <v>23.13000000000018</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>7.689429639334833e-05</v>
+        <v>0.005410175724547384</v>
       </c>
       <c r="I5" t="n">
-        <v>7.689429639334833e-05</v>
+        <v>0.005410175724547384</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>45.32243924209806</v>
+        <v>34.73425979680542</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[19.472745766352148, 71.17213271784397]</t>
+          <t>[6.822092046159902, 62.646427547450934]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0009677944313333242</v>
+        <v>0.01587966147265418</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0009677944313333242</v>
+        <v>0.01587966147265418</v>
       </c>
       <c r="P5" t="n">
-        <v>2.471763589310888</v>
+        <v>2.673026782333658</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.9182898084982725, 3.025237370123504]</t>
+          <t>[1.8302371615508104, 3.5158164031165047]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>1.288702478063897e-11</v>
+        <v>8.273577534190224e-08</v>
       </c>
       <c r="S5" t="n">
-        <v>1.288702478063897e-11</v>
+        <v>8.273577534190224e-08</v>
       </c>
       <c r="T5" t="n">
-        <v>82.58243122813727</v>
+        <v>50.42254082661632</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[69.1124648476638, 96.05239760861073]</t>
+          <t>[35.816593272922475, 65.02848838031016]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.196113919021968e-08</v>
       </c>
       <c r="W5" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>1.196113919021968e-08</v>
       </c>
       <c r="X5" t="n">
-        <v>13.67897897897903</v>
+        <v>13.28990990991001</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.69259259259264</v>
+        <v>10.18738738738747</v>
       </c>
       <c r="Z5" t="n">
-        <v>15.66536536536542</v>
+        <v>16.39243243243256</v>
       </c>
     </row>
     <row r="6">
@@ -937,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>22.55000000000009</v>
+        <v>23.13000000000018</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>2.534067289339248e-08</v>
+        <v>0.03330753381588636</v>
       </c>
       <c r="I6" t="n">
-        <v>2.534067289339248e-08</v>
+        <v>0.03330753381588636</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>59.63004872921704</v>
+        <v>24.33788975728153</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[37.987079211667094, 81.27301824676698]</t>
+          <t>[1.5153903552649766, 47.16038915929808]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.450230371347061e-06</v>
+        <v>0.03714765197251224</v>
       </c>
       <c r="O6" t="n">
-        <v>1.450230371347061e-06</v>
+        <v>0.03714765197251224</v>
       </c>
       <c r="P6" t="n">
-        <v>2.836553126664658</v>
+        <v>2.924605773612119</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[2.434026740619119, 3.2390795127101963]</t>
+          <t>[1.6163950189641176, 4.232816528260122]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>4.718833563122082e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>4.718833563122082e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>67.71392014100674</v>
+        <v>57.78557626080465</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[55.72642266583294, 79.70141761618054]</t>
+          <t>[44.78695143570151, 70.78420108590778]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>7.771561172376096e-15</v>
+        <v>1.473021704612165e-11</v>
       </c>
       <c r="W6" t="n">
-        <v>7.771561172376096e-15</v>
+        <v>1.473021704612165e-11</v>
       </c>
       <c r="X6" t="n">
-        <v>12.36976976976982</v>
+        <v>12.36378378378388</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.92512512512517</v>
+        <v>7.547927927927988</v>
       </c>
       <c r="Z6" t="n">
-        <v>13.81441441441447</v>
+        <v>17.17963963963977</v>
       </c>
     </row>
     <row r="7">
@@ -1023,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>22.55000000000009</v>
+        <v>23.13000000000018</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0007496098217150138</v>
+        <v>0.0002018687591337498</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0007496098217150138</v>
+        <v>0.0002018687591337498</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>39.78549070378454</v>
+        <v>50.89007708613605</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[17.580920960047884, 61.990060447521195]</t>
+          <t>[24.695738876799453, 77.08441529547264]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.0007689693720362989</v>
+        <v>0.0003054620569606925</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0007689693720362989</v>
+        <v>0.0003054620569606925</v>
       </c>
       <c r="P7" t="n">
-        <v>-3.119579491852928</v>
+        <v>3.075553168379197</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-3.886895415252237, -2.352263568453619]</t>
+          <t>[2.434026740619119, 3.717079596139274]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>1.835793739246583e-10</v>
+        <v>1.539657290550167e-12</v>
       </c>
       <c r="S7" t="n">
-        <v>1.835793739246583e-10</v>
+        <v>1.539657290550167e-12</v>
       </c>
       <c r="T7" t="n">
-        <v>49.58951665567889</v>
+        <v>68.04989026697177</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[35.46472484281361, 63.71430846854416]</t>
+          <t>[51.839006032149996, 84.26077450179355]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>7.993209427681336e-09</v>
+        <v>7.579714633720869e-11</v>
       </c>
       <c r="W7" t="n">
-        <v>7.993209427681336e-09</v>
+        <v>7.579714633720869e-11</v>
       </c>
       <c r="X7" t="n">
-        <v>11.19599599599604</v>
+        <v>11.8081081081082</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.442142142142174</v>
+        <v>9.446486486486561</v>
       </c>
       <c r="Z7" t="n">
-        <v>13.9498498498499</v>
+        <v>14.16972972972984</v>
       </c>
     </row>
   </sheetData>
